--- a/resultados/pretratamiento-tablas-control/pretrat-francia-elo-facil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-francia-elo-facil.xlsx
@@ -1264,7 +1264,7 @@
     <t>49.64 (50)</t>
   </si>
   <si>
-    <t>11.24 (50)</t>
+    <t>11.26 (50)</t>
   </si>
   <si>
     <t>10.56 (50)</t>
@@ -1315,7 +1315,7 @@
     <t>47.923 (104)</t>
   </si>
   <si>
-    <t>10.404 (104)</t>
+    <t>10.394 (104)</t>
   </si>
   <si>
     <t>10.452 (104)</t>
@@ -2419,7 +2419,7 @@
     <t>48.75 (80)</t>
   </si>
   <si>
-    <t>11.038 (80)</t>
+    <t>11.025 (80)</t>
   </si>
   <si>
     <t>11.475 (80)</t>
@@ -2470,7 +2470,7 @@
     <t>48.364 (77)</t>
   </si>
   <si>
-    <t>10.597 (77)</t>
+    <t>10.61 (77)</t>
   </si>
   <si>
     <t>9.662 (77)</t>
@@ -2611,7 +2611,7 @@
     <t>46.411 (56)</t>
   </si>
   <si>
-    <t>11.857 (56)</t>
+    <t>11.875 (56)</t>
   </si>
   <si>
     <t>12.232 (56)</t>
@@ -2662,7 +2662,7 @@
     <t>49.523 (111)</t>
   </si>
   <si>
-    <t>10.541 (111)</t>
+    <t>10.532 (111)</t>
   </si>
   <si>
     <t>10.027 (111)</t>
@@ -2770,7 +2770,7 @@
     <t>47.412 (34)</t>
   </si>
   <si>
-    <t>10.235 (34)</t>
+    <t>10.265 (34)</t>
   </si>
   <si>
     <t>11.765 (34)</t>
@@ -2821,7 +2821,7 @@
     <t>48.4 (100)</t>
   </si>
   <si>
-    <t>11.34 (100)</t>
+    <t>11.33 (100)</t>
   </si>
   <si>
     <t>10.57 (100)</t>
@@ -3037,7 +3037,7 @@
     <t>47.598 (92)</t>
   </si>
   <si>
-    <t>11.326 (92)</t>
+    <t>11.337 (92)</t>
   </si>
   <si>
     <t>11.283 (92)</t>
@@ -3091,7 +3091,7 @@
     <t>50.671 (73)</t>
   </si>
   <si>
-    <t>10.082 (73)</t>
+    <t>10.068 (73)</t>
   </si>
   <si>
     <t>9.178 (73)</t>
@@ -3857,10 +3857,10 @@
         <v>-2.013</v>
       </c>
       <c r="H2">
-        <v>-0.496</v>
+        <v>-0.388</v>
       </c>
       <c r="I2">
-        <v>0.621</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3886,10 +3886,10 @@
         <v>4.54</v>
       </c>
       <c r="H3">
-        <v>1.133</v>
+        <v>0.864</v>
       </c>
       <c r="I3">
-        <v>0.259</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3915,10 +3915,10 @@
         <v>-0.697</v>
       </c>
       <c r="H4">
-        <v>-0.137</v>
+        <v>-0.143</v>
       </c>
       <c r="I4">
-        <v>0.891</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3944,10 +3944,10 @@
         <v>3.732</v>
       </c>
       <c r="H5">
-        <v>0.912</v>
+        <v>0.973</v>
       </c>
       <c r="I5">
-        <v>0.363</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3973,10 +3973,10 @@
         <v>3.341</v>
       </c>
       <c r="H6">
-        <v>0.89</v>
+        <v>1.091</v>
       </c>
       <c r="I6">
-        <v>0.375</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4002,10 +4002,10 @@
         <v>2.427</v>
       </c>
       <c r="H7">
-        <v>0.676</v>
+        <v>0.551</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4028,13 +4028,13 @@
         <v>0.04</v>
       </c>
       <c r="G8">
-        <v>0.396</v>
+        <v>0.402</v>
       </c>
       <c r="H8">
-        <v>0.238</v>
+        <v>0.202</v>
       </c>
       <c r="I8">
-        <v>0.8120000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4060,10 +4060,10 @@
         <v>-1.911</v>
       </c>
       <c r="H9">
-        <v>-1.17</v>
+        <v>-1.077</v>
       </c>
       <c r="I9">
-        <v>0.244</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4089,10 +4089,10 @@
         <v>-0.6</v>
       </c>
       <c r="H10">
-        <v>-0.327</v>
+        <v>-0.345</v>
       </c>
       <c r="I10">
-        <v>0.744</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4118,10 +4118,10 @@
         <v>-1.277</v>
       </c>
       <c r="H11">
-        <v>-0.73</v>
+        <v>-0.756</v>
       </c>
       <c r="I11">
-        <v>0.466</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4147,10 +4147,10 @@
         <v>-0.718</v>
       </c>
       <c r="H12">
-        <v>-0.414</v>
+        <v>-0.491</v>
       </c>
       <c r="I12">
-        <v>0.679</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4176,10 +4176,10 @@
         <v>-0.9360000000000001</v>
       </c>
       <c r="H13">
-        <v>-0.552</v>
+        <v>-0.441</v>
       </c>
       <c r="I13">
-        <v>0.581</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4205,10 +4205,10 @@
         <v>0.028</v>
       </c>
       <c r="H14">
-        <v>0.944</v>
+        <v>0.749</v>
       </c>
       <c r="I14">
-        <v>0.347</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4234,10 +4234,10 @@
         <v>0.049</v>
       </c>
       <c r="H15">
-        <v>1.553</v>
+        <v>1.269</v>
       </c>
       <c r="I15">
-        <v>0.122</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4263,10 +4263,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="H16">
-        <v>0.278</v>
+        <v>0.218</v>
       </c>
       <c r="I16">
-        <v>0.781</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4292,10 +4292,10 @@
         <v>-0.026</v>
       </c>
       <c r="H17">
-        <v>-0.854</v>
+        <v>-0.92</v>
       </c>
       <c r="I17">
-        <v>0.395</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4321,10 +4321,10 @@
         <v>0.002</v>
       </c>
       <c r="H18">
-        <v>0.065</v>
+        <v>0.039</v>
       </c>
       <c r="I18">
-        <v>0.949</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4350,10 +4350,10 @@
         <v>-0.011</v>
       </c>
       <c r="H19">
-        <v>-0.384</v>
+        <v>-0.329</v>
       </c>
       <c r="I19">
-        <v>0.702</v>
+        <v>0.742</v>
       </c>
     </row>
   </sheetData>
@@ -4446,10 +4446,10 @@
         <v>-0.703</v>
       </c>
       <c r="J2">
-        <v>-0.168</v>
+        <v>-0.143</v>
       </c>
       <c r="K2">
-        <v>0.867</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4481,10 +4481,10 @@
         <v>3.534</v>
       </c>
       <c r="J3">
-        <v>0.853</v>
+        <v>1.067</v>
       </c>
       <c r="K3">
-        <v>0.395</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4516,10 +4516,10 @@
         <v>0.25</v>
       </c>
       <c r="J4">
-        <v>0.048</v>
+        <v>0.037</v>
       </c>
       <c r="K4">
-        <v>0.962</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4551,10 +4551,10 @@
         <v>0.966</v>
       </c>
       <c r="J5">
-        <v>0.228</v>
+        <v>0.198</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4586,10 +4586,10 @@
         <v>-2.481</v>
       </c>
       <c r="J6">
-        <v>-0.639</v>
+        <v>-0.67</v>
       </c>
       <c r="K6">
-        <v>0.523</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4621,10 +4621,10 @@
         <v>-1.686</v>
       </c>
       <c r="J7">
-        <v>-0.455</v>
+        <v>-0.397</v>
       </c>
       <c r="K7">
-        <v>0.65</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4653,13 +4653,13 @@
         <v>0.037</v>
       </c>
       <c r="I8">
-        <v>-1.497</v>
+        <v>-1.511</v>
       </c>
       <c r="J8">
-        <v>-0.874</v>
+        <v>-0.704</v>
       </c>
       <c r="K8">
-        <v>0.383</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4691,10 +4691,10 @@
         <v>-1.639</v>
       </c>
       <c r="J9">
-        <v>-0.971</v>
+        <v>-1.235</v>
       </c>
       <c r="K9">
-        <v>0.333</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4726,10 +4726,10 @@
         <v>-1.082</v>
       </c>
       <c r="J10">
-        <v>-0.572</v>
+        <v>-0.42</v>
       </c>
       <c r="K10">
-        <v>0.5679999999999999</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4761,10 +4761,10 @@
         <v>-1.161</v>
       </c>
       <c r="J11">
-        <v>-0.643</v>
+        <v>-0.5679999999999999</v>
       </c>
       <c r="K11">
-        <v>0.521</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4796,10 +4796,10 @@
         <v>1.433</v>
       </c>
       <c r="J12">
-        <v>0.803</v>
+        <v>0.84</v>
       </c>
       <c r="K12">
-        <v>0.423</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4831,10 +4831,10 @@
         <v>1.239</v>
       </c>
       <c r="J13">
-        <v>0.709</v>
+        <v>0.707</v>
       </c>
       <c r="K13">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4866,10 +4866,10 @@
         <v>0.034</v>
       </c>
       <c r="J14">
-        <v>1.115</v>
+        <v>1.06</v>
       </c>
       <c r="K14">
-        <v>0.267</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4901,10 +4901,10 @@
         <v>0.05</v>
       </c>
       <c r="J15">
-        <v>1.536</v>
+        <v>1.924</v>
       </c>
       <c r="K15">
-        <v>0.127</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4936,10 +4936,10 @@
         <v>-0.016</v>
       </c>
       <c r="J16">
-        <v>-0.482</v>
+        <v>-0.408</v>
       </c>
       <c r="K16">
-        <v>0.63</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4971,10 +4971,10 @@
         <v>-0.03</v>
       </c>
       <c r="J17">
-        <v>-0.952</v>
+        <v>-0.629</v>
       </c>
       <c r="K17">
-        <v>0.343</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5006,10 +5006,10 @@
         <v>0.015</v>
       </c>
       <c r="J18">
-        <v>0.49</v>
+        <v>0.345</v>
       </c>
       <c r="K18">
-        <v>0.625</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5041,10 +5041,10 @@
         <v>0.02</v>
       </c>
       <c r="J19">
-        <v>0.668</v>
+        <v>0.587</v>
       </c>
       <c r="K19">
-        <v>0.505</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5137,10 +5137,10 @@
         <v>0.793</v>
       </c>
       <c r="J2">
-        <v>0.159</v>
+        <v>0.128</v>
       </c>
       <c r="K2">
-        <v>0.874</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5172,10 +5172,10 @@
         <v>2.923</v>
       </c>
       <c r="J3">
-        <v>0.593</v>
+        <v>0.723</v>
       </c>
       <c r="K3">
-        <v>0.554</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5207,10 +5207,10 @@
         <v>3.732</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>0.488</v>
       </c>
       <c r="K4">
-        <v>0.549</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5242,10 +5242,10 @@
         <v>-1.857</v>
       </c>
       <c r="J5">
-        <v>-0.369</v>
+        <v>-0.345</v>
       </c>
       <c r="K5">
-        <v>0.713</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5277,10 +5277,10 @@
         <v>-5.715</v>
       </c>
       <c r="J6">
-        <v>-1.244</v>
+        <v>-1.162</v>
       </c>
       <c r="K6">
-        <v>0.215</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5312,10 +5312,10 @@
         <v>-5.974</v>
       </c>
       <c r="J7">
-        <v>-1.362</v>
+        <v>-0.991</v>
       </c>
       <c r="K7">
-        <v>0.175</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5344,13 +5344,13 @@
         <v>0.026</v>
       </c>
       <c r="I8">
-        <v>-2.326</v>
+        <v>-2.33</v>
       </c>
       <c r="J8">
-        <v>-1.145</v>
+        <v>-0.983</v>
       </c>
       <c r="K8">
-        <v>0.254</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5382,10 +5382,10 @@
         <v>-1.126</v>
       </c>
       <c r="J9">
-        <v>-0.5600000000000001</v>
+        <v>-0.788</v>
       </c>
       <c r="K9">
-        <v>0.576</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5417,10 +5417,10 @@
         <v>-2.597</v>
       </c>
       <c r="J10">
-        <v>-1.158</v>
+        <v>-0.9429999999999999</v>
       </c>
       <c r="K10">
-        <v>0.249</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5452,10 +5452,10 @@
         <v>-0.075</v>
       </c>
       <c r="J11">
-        <v>-0.035</v>
+        <v>-0.036</v>
       </c>
       <c r="K11">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5487,10 +5487,10 @@
         <v>3.183</v>
       </c>
       <c r="J12">
-        <v>1.508</v>
+        <v>1.339</v>
       </c>
       <c r="K12">
-        <v>0.134</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5522,10 +5522,10 @@
         <v>3.946</v>
       </c>
       <c r="J13">
-        <v>1.919</v>
+        <v>1.707</v>
       </c>
       <c r="K13">
-        <v>0.057</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5557,10 +5557,10 @@
         <v>0.057</v>
       </c>
       <c r="J14">
-        <v>1.589</v>
+        <v>1.347</v>
       </c>
       <c r="K14">
-        <v>0.114</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5592,10 +5592,10 @@
         <v>0.037</v>
       </c>
       <c r="J15">
-        <v>0.95</v>
+        <v>1.796</v>
       </c>
       <c r="K15">
-        <v>0.343</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5627,10 +5627,10 @@
         <v>-0.015</v>
       </c>
       <c r="J16">
-        <v>-0.378</v>
+        <v>-0.349</v>
       </c>
       <c r="K16">
-        <v>0.706</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5662,10 +5662,10 @@
         <v>-0.022</v>
       </c>
       <c r="J17">
-        <v>-0.589</v>
+        <v>-0.376</v>
       </c>
       <c r="K17">
-        <v>0.5570000000000001</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5697,10 +5697,10 @@
         <v>0.04</v>
       </c>
       <c r="J18">
-        <v>1.101</v>
+        <v>0.759</v>
       </c>
       <c r="K18">
-        <v>0.273</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5732,10 +5732,10 @@
         <v>0.043</v>
       </c>
       <c r="J19">
-        <v>1.212</v>
+        <v>1.085</v>
       </c>
       <c r="K19">
-        <v>0.227</v>
+        <v>0.278</v>
       </c>
     </row>
   </sheetData>
@@ -5828,10 +5828,10 @@
         <v>3.956</v>
       </c>
       <c r="J2">
-        <v>0.711</v>
+        <v>0.589</v>
       </c>
       <c r="K2">
-        <v>0.478</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5863,10 +5863,10 @@
         <v>11.159</v>
       </c>
       <c r="J3">
-        <v>2.05</v>
+        <v>1.829</v>
       </c>
       <c r="K3">
-        <v>0.042</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5898,10 +5898,10 @@
         <v>6.313</v>
       </c>
       <c r="J4">
-        <v>0.91</v>
+        <v>0.793</v>
       </c>
       <c r="K4">
-        <v>0.364</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5933,10 +5933,10 @@
         <v>-1.261</v>
       </c>
       <c r="J5">
-        <v>-0.224</v>
+        <v>-0.242</v>
       </c>
       <c r="K5">
-        <v>0.823</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5968,10 +5968,10 @@
         <v>-3.417</v>
       </c>
       <c r="J6">
-        <v>-0.663</v>
+        <v>-0.633</v>
       </c>
       <c r="K6">
-        <v>0.508</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6003,10 +6003,10 @@
         <v>-6.093</v>
       </c>
       <c r="J7">
-        <v>-1.242</v>
+        <v>-0.864</v>
       </c>
       <c r="K7">
-        <v>0.216</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6035,13 +6035,13 @@
         <v>0.021</v>
       </c>
       <c r="I8">
-        <v>-2.439</v>
+        <v>-2.408</v>
       </c>
       <c r="J8">
-        <v>-1.074</v>
+        <v>-0.951</v>
       </c>
       <c r="K8">
-        <v>0.285</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6073,10 +6073,10 @@
         <v>-3.505</v>
       </c>
       <c r="J9">
-        <v>-1.571</v>
+        <v>-1.546</v>
       </c>
       <c r="K9">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6108,10 +6108,10 @@
         <v>-3.675</v>
       </c>
       <c r="J10">
-        <v>-1.47</v>
+        <v>-1.199</v>
       </c>
       <c r="K10">
-        <v>0.144</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6143,10 +6143,10 @@
         <v>-1.04</v>
       </c>
       <c r="J11">
-        <v>-0.433</v>
+        <v>-0.501</v>
       </c>
       <c r="K11">
-        <v>0.665</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6178,10 +6178,10 @@
         <v>2.749</v>
       </c>
       <c r="J12">
-        <v>1.162</v>
+        <v>1.044</v>
       </c>
       <c r="K12">
-        <v>0.247</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6213,10 +6213,10 @@
         <v>3.998</v>
       </c>
       <c r="J13">
-        <v>1.736</v>
+        <v>1.468</v>
       </c>
       <c r="K13">
-        <v>0.08500000000000001</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6248,10 +6248,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="J14">
-        <v>2.147</v>
+        <v>2.015</v>
       </c>
       <c r="K14">
-        <v>0.033</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6283,10 +6283,10 @@
         <v>0.038</v>
       </c>
       <c r="J15">
-        <v>0.88</v>
+        <v>1.512</v>
       </c>
       <c r="K15">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6318,10 +6318,10 @@
         <v>-0.013</v>
       </c>
       <c r="J16">
-        <v>-0.307</v>
+        <v>-0.346</v>
       </c>
       <c r="K16">
-        <v>0.76</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6353,10 +6353,10 @@
         <v>-0</v>
       </c>
       <c r="J17">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="K17">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6388,10 +6388,10 @@
         <v>0.033</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="K18">
-        <v>0.425</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6423,10 +6423,10 @@
         <v>0.056</v>
       </c>
       <c r="J19">
-        <v>1.417</v>
+        <v>1.626</v>
       </c>
       <c r="K19">
-        <v>0.158</v>
+        <v>0.104</v>
       </c>
     </row>
   </sheetData>
@@ -6512,10 +6512,10 @@
         <v>2.1</v>
       </c>
       <c r="I2">
-        <v>0.607</v>
+        <v>0.445</v>
       </c>
       <c r="J2">
-        <v>0.545</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6544,10 +6544,10 @@
         <v>5.42</v>
       </c>
       <c r="I3">
-        <v>1.594</v>
+        <v>1.455</v>
       </c>
       <c r="J3">
-        <v>0.113</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6576,10 +6576,10 @@
         <v>4.46</v>
       </c>
       <c r="I4">
-        <v>1.036</v>
+        <v>0.761</v>
       </c>
       <c r="J4">
-        <v>0.302</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6608,10 +6608,10 @@
         <v>2.058</v>
       </c>
       <c r="I5">
-        <v>0.589</v>
+        <v>0.591</v>
       </c>
       <c r="J5">
-        <v>0.5570000000000001</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6640,10 +6640,10 @@
         <v>2.787</v>
       </c>
       <c r="I6">
-        <v>0.872</v>
+        <v>1.076</v>
       </c>
       <c r="J6">
-        <v>0.385</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6672,10 +6672,10 @@
         <v>-0.455</v>
       </c>
       <c r="I7">
-        <v>-0.149</v>
+        <v>-0.157</v>
       </c>
       <c r="J7">
-        <v>0.882</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6701,13 +6701,13 @@
         <v>0.054</v>
       </c>
       <c r="H8">
-        <v>-2.26</v>
+        <v>-2.295</v>
       </c>
       <c r="I8">
-        <v>-1.609</v>
+        <v>-1.142</v>
       </c>
       <c r="J8">
-        <v>0.11</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6736,10 +6736,10 @@
         <v>-2.752</v>
       </c>
       <c r="I9">
-        <v>-1.996</v>
+        <v>-1.962</v>
       </c>
       <c r="J9">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6768,10 +6768,10 @@
         <v>-2.376</v>
       </c>
       <c r="I10">
-        <v>-1.531</v>
+        <v>-1.16</v>
       </c>
       <c r="J10">
-        <v>0.128</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6800,10 +6800,10 @@
         <v>-0.593</v>
       </c>
       <c r="I11">
-        <v>-0.398</v>
+        <v>-0.391</v>
       </c>
       <c r="J11">
-        <v>0.6909999999999999</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6832,10 +6832,10 @@
         <v>-0.894</v>
       </c>
       <c r="I12">
-        <v>-0.607</v>
+        <v>-0.696</v>
       </c>
       <c r="J12">
-        <v>0.545</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6864,10 +6864,10 @@
         <v>0.945</v>
       </c>
       <c r="I13">
-        <v>0.655</v>
+        <v>0.629</v>
       </c>
       <c r="J13">
-        <v>0.513</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6896,10 +6896,10 @@
         <v>0.048</v>
       </c>
       <c r="I14">
-        <v>1.933</v>
+        <v>1.699</v>
       </c>
       <c r="J14">
-        <v>0.055</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6928,10 +6928,10 @@
         <v>0.034</v>
       </c>
       <c r="I15">
-        <v>1.26</v>
+        <v>1.227</v>
       </c>
       <c r="J15">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6960,10 +6960,10 @@
         <v>-0.027</v>
       </c>
       <c r="I16">
-        <v>-0.974</v>
+        <v>-0.785</v>
       </c>
       <c r="J16">
-        <v>0.332</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6992,10 +6992,10 @@
         <v>-0.021</v>
       </c>
       <c r="I17">
-        <v>-0.8169999999999999</v>
+        <v>-0.626</v>
       </c>
       <c r="J17">
-        <v>0.415</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7024,10 +7024,10 @@
         <v>0.025</v>
       </c>
       <c r="I18">
-        <v>0.983</v>
+        <v>0.704</v>
       </c>
       <c r="J18">
-        <v>0.327</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7056,10 +7056,10 @@
         <v>0.015</v>
       </c>
       <c r="I19">
-        <v>0.616</v>
+        <v>0.484</v>
       </c>
       <c r="J19">
-        <v>0.538</v>
+        <v>0.628</v>
       </c>
     </row>
   </sheetData>
@@ -7152,10 +7152,10 @@
         <v>0.357</v>
       </c>
       <c r="J2">
-        <v>0.08599999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="K2">
-        <v>0.9320000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7187,10 +7187,10 @@
         <v>4.274</v>
       </c>
       <c r="J3">
-        <v>1.04</v>
+        <v>1.258</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7222,10 +7222,10 @@
         <v>3.595</v>
       </c>
       <c r="J4">
-        <v>0.6929999999999999</v>
+        <v>0.486</v>
       </c>
       <c r="K4">
-        <v>0.49</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7257,10 +7257,10 @@
         <v>-0.376</v>
       </c>
       <c r="J5">
-        <v>-0.089</v>
+        <v>-0.08</v>
       </c>
       <c r="K5">
-        <v>0.929</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7292,10 +7292,10 @@
         <v>-1.403</v>
       </c>
       <c r="J6">
-        <v>-0.364</v>
+        <v>-0.385</v>
       </c>
       <c r="K6">
-        <v>0.716</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7327,10 +7327,10 @@
         <v>0.965</v>
       </c>
       <c r="J7">
-        <v>0.262</v>
+        <v>0.255</v>
       </c>
       <c r="K7">
-        <v>0.794</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7359,13 +7359,13 @@
         <v>0.037</v>
       </c>
       <c r="I8">
-        <v>-2.089</v>
+        <v>-2.129</v>
       </c>
       <c r="J8">
-        <v>-1.233</v>
+        <v>-1.051</v>
       </c>
       <c r="K8">
-        <v>0.22</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7397,10 +7397,10 @@
         <v>-2.714</v>
       </c>
       <c r="J9">
-        <v>-1.63</v>
+        <v>-2.044</v>
       </c>
       <c r="K9">
-        <v>0.105</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7432,10 +7432,10 @@
         <v>-1.879</v>
       </c>
       <c r="J10">
-        <v>-1.002</v>
+        <v>-0.705</v>
       </c>
       <c r="K10">
-        <v>0.318</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7467,10 +7467,10 @@
         <v>-0.205</v>
       </c>
       <c r="J11">
-        <v>-0.115</v>
+        <v>-0.1</v>
       </c>
       <c r="K11">
-        <v>0.909</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7502,10 +7502,10 @@
         <v>1.028</v>
       </c>
       <c r="J12">
-        <v>0.579</v>
+        <v>0.624</v>
       </c>
       <c r="K12">
-        <v>0.5629999999999999</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7537,10 +7537,10 @@
         <v>0.011</v>
       </c>
       <c r="J13">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="K13">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7572,10 +7572,10 @@
         <v>0.029</v>
       </c>
       <c r="J14">
-        <v>0.944</v>
+        <v>0.856</v>
       </c>
       <c r="K14">
-        <v>0.347</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7607,10 +7607,10 @@
         <v>0.016</v>
       </c>
       <c r="J15">
-        <v>0.484</v>
+        <v>0.474</v>
       </c>
       <c r="K15">
-        <v>0.629</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7642,10 +7642,10 @@
         <v>-0.041</v>
       </c>
       <c r="J16">
-        <v>-1.242</v>
+        <v>-0.953</v>
       </c>
       <c r="K16">
-        <v>0.216</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7677,10 +7677,10 @@
         <v>-0.025</v>
       </c>
       <c r="J17">
-        <v>-0.792</v>
+        <v>-0.532</v>
       </c>
       <c r="K17">
-        <v>0.43</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7712,10 +7712,10 @@
         <v>0.028</v>
       </c>
       <c r="J18">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="K18">
-        <v>0.37</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7747,10 +7747,10 @@
         <v>0.023</v>
       </c>
       <c r="J19">
-        <v>0.784</v>
+        <v>0.721</v>
       </c>
       <c r="K19">
-        <v>0.434</v>
+        <v>0.471</v>
       </c>
     </row>
   </sheetData>
@@ -7843,10 +7843,10 @@
         <v>2.128</v>
       </c>
       <c r="J2">
-        <v>0.432</v>
+        <v>0.418</v>
       </c>
       <c r="K2">
-        <v>0.667</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7878,10 +7878,10 @@
         <v>4.282</v>
       </c>
       <c r="J3">
-        <v>0.879</v>
+        <v>1.143</v>
       </c>
       <c r="K3">
-        <v>0.381</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7913,10 +7913,10 @@
         <v>9.134</v>
       </c>
       <c r="J4">
-        <v>1.494</v>
+        <v>1.089</v>
       </c>
       <c r="K4">
-        <v>0.137</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7948,10 +7948,10 @@
         <v>-3.23</v>
       </c>
       <c r="J5">
-        <v>-0.649</v>
+        <v>-0.645</v>
       </c>
       <c r="K5">
-        <v>0.517</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7983,10 +7983,10 @@
         <v>-6.6</v>
       </c>
       <c r="J6">
-        <v>-1.455</v>
+        <v>-1.424</v>
       </c>
       <c r="K6">
-        <v>0.148</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8018,10 +8018,10 @@
         <v>-3.548</v>
       </c>
       <c r="J7">
-        <v>-0.8149999999999999</v>
+        <v>-0.804</v>
       </c>
       <c r="K7">
-        <v>0.416</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8050,13 +8050,13 @@
         <v>0.026</v>
       </c>
       <c r="I8">
-        <v>-3.02</v>
+        <v>-3.064</v>
       </c>
       <c r="J8">
-        <v>-1.508</v>
+        <v>-1.491</v>
       </c>
       <c r="K8">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8088,10 +8088,10 @@
         <v>-2.687</v>
       </c>
       <c r="J9">
-        <v>-1.358</v>
+        <v>-1.744</v>
       </c>
       <c r="K9">
-        <v>0.176</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8123,10 +8123,10 @@
         <v>-3.552</v>
       </c>
       <c r="J10">
-        <v>-1.607</v>
+        <v>-1.217</v>
       </c>
       <c r="K10">
-        <v>0.11</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8158,10 +8158,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="J11">
-        <v>0.443</v>
+        <v>0.498</v>
       </c>
       <c r="K11">
-        <v>0.659</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8193,10 +8193,10 @@
         <v>3.462</v>
       </c>
       <c r="J12">
-        <v>1.66</v>
+        <v>1.609</v>
       </c>
       <c r="K12">
-        <v>0.099</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8228,10 +8228,10 @@
         <v>2.733</v>
       </c>
       <c r="J13">
-        <v>1.335</v>
+        <v>1.683</v>
       </c>
       <c r="K13">
-        <v>0.184</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8263,10 +8263,10 @@
         <v>0.067</v>
       </c>
       <c r="J14">
-        <v>1.877</v>
+        <v>1.615</v>
       </c>
       <c r="K14">
-        <v>0.062</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8298,10 +8298,10 @@
         <v>0.014</v>
       </c>
       <c r="J15">
-        <v>0.373</v>
+        <v>0.55</v>
       </c>
       <c r="K15">
-        <v>0.71</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8333,10 +8333,10 @@
         <v>-0.036</v>
       </c>
       <c r="J16">
-        <v>-0.917</v>
+        <v>-0.774</v>
       </c>
       <c r="K16">
-        <v>0.36</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8368,10 +8368,10 @@
         <v>-0.027</v>
       </c>
       <c r="J17">
-        <v>-0.714</v>
+        <v>-0.476</v>
       </c>
       <c r="K17">
-        <v>0.476</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8403,10 +8403,10 @@
         <v>0.034</v>
       </c>
       <c r="J18">
-        <v>0.931</v>
+        <v>0.672</v>
       </c>
       <c r="K18">
-        <v>0.353</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8438,10 +8438,10 @@
         <v>0.036</v>
       </c>
       <c r="J19">
-        <v>1.034</v>
+        <v>1.06</v>
       </c>
       <c r="K19">
-        <v>0.303</v>
+        <v>0.289</v>
       </c>
     </row>
   </sheetData>
@@ -8534,10 +8534,10 @@
         <v>6.561</v>
       </c>
       <c r="J2">
-        <v>1.212</v>
+        <v>1.34</v>
       </c>
       <c r="K2">
-        <v>0.227</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8569,10 +8569,10 @@
         <v>11.647</v>
       </c>
       <c r="J3">
-        <v>2.196</v>
+        <v>2.047</v>
       </c>
       <c r="K3">
-        <v>0.03</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8604,10 +8604,10 @@
         <v>12.341</v>
       </c>
       <c r="J4">
-        <v>1.837</v>
+        <v>1.634</v>
       </c>
       <c r="K4">
-        <v>0.068</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8639,10 +8639,10 @@
         <v>-1.635</v>
       </c>
       <c r="J5">
-        <v>-0.298</v>
+        <v>-0.32</v>
       </c>
       <c r="K5">
-        <v>0.766</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8674,10 +8674,10 @@
         <v>-3.505</v>
       </c>
       <c r="J6">
-        <v>-0.697</v>
+        <v>-0.72</v>
       </c>
       <c r="K6">
-        <v>0.487</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8709,10 +8709,10 @@
         <v>-3.74</v>
       </c>
       <c r="J7">
-        <v>-0.779</v>
+        <v>-0.704</v>
       </c>
       <c r="K7">
-        <v>0.437</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8741,13 +8741,13 @@
         <v>0.021</v>
       </c>
       <c r="I8">
-        <v>-3.841</v>
+        <v>-3.853</v>
       </c>
       <c r="J8">
-        <v>-1.743</v>
+        <v>-1.893</v>
       </c>
       <c r="K8">
-        <v>0.083</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8779,10 +8779,10 @@
         <v>-5.257</v>
       </c>
       <c r="J9">
-        <v>-2.442</v>
+        <v>-2.308</v>
       </c>
       <c r="K9">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8814,10 +8814,10 @@
         <v>-4.827</v>
       </c>
       <c r="J10">
-        <v>-1.99</v>
+        <v>-1.6</v>
       </c>
       <c r="K10">
-        <v>0.048</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8849,10 +8849,10 @@
         <v>-0.416</v>
       </c>
       <c r="J11">
-        <v>-0.178</v>
+        <v>-0.2</v>
       </c>
       <c r="K11">
-        <v>0.859</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8884,10 +8884,10 @@
         <v>2.625</v>
       </c>
       <c r="J12">
-        <v>1.136</v>
+        <v>1.191</v>
       </c>
       <c r="K12">
-        <v>0.258</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8919,10 +8919,10 @@
         <v>2.904</v>
       </c>
       <c r="J13">
-        <v>1.287</v>
+        <v>1.339</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8954,10 +8954,10 @@
         <v>0.1</v>
       </c>
       <c r="J14">
-        <v>2.579</v>
+        <v>2.582</v>
       </c>
       <c r="K14">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8989,10 +8989,10 @@
         <v>0.011</v>
       </c>
       <c r="J15">
-        <v>0.249</v>
+        <v>0.379</v>
       </c>
       <c r="K15">
-        <v>0.803</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9024,10 +9024,10 @@
         <v>-0.035</v>
       </c>
       <c r="J16">
-        <v>-0.827</v>
+        <v>-0.862</v>
       </c>
       <c r="K16">
-        <v>0.41</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9059,10 +9059,10 @@
         <v>-0.014</v>
       </c>
       <c r="J17">
-        <v>-0.341</v>
+        <v>-0.256</v>
       </c>
       <c r="K17">
-        <v>0.734</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9094,10 +9094,10 @@
         <v>0.017</v>
       </c>
       <c r="J18">
-        <v>0.43</v>
+        <v>0.404</v>
       </c>
       <c r="K18">
-        <v>0.668</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9129,10 +9129,10 @@
         <v>0.042</v>
       </c>
       <c r="J19">
-        <v>1.094</v>
+        <v>1.267</v>
       </c>
       <c r="K19">
-        <v>0.275</v>
+        <v>0.205</v>
       </c>
     </row>
   </sheetData>
@@ -9218,10 +9218,10 @@
         <v>-3.161</v>
       </c>
       <c r="I2">
-        <v>-0.659</v>
+        <v>-0.523</v>
       </c>
       <c r="J2">
-        <v>0.511</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9250,10 +9250,10 @@
         <v>2.958</v>
       </c>
       <c r="I3">
-        <v>0.623</v>
+        <v>0.514</v>
       </c>
       <c r="J3">
-        <v>0.534</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9282,10 +9282,10 @@
         <v>-1.368</v>
       </c>
       <c r="I4">
-        <v>-0.228</v>
+        <v>-0.224</v>
       </c>
       <c r="J4">
-        <v>0.82</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9314,10 +9314,10 @@
         <v>4.058</v>
       </c>
       <c r="I5">
-        <v>0.839</v>
+        <v>1.072</v>
       </c>
       <c r="J5">
-        <v>0.403</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9346,10 +9346,10 @@
         <v>0.328</v>
       </c>
       <c r="I6">
-        <v>0.074</v>
+        <v>0.077</v>
       </c>
       <c r="J6">
-        <v>0.9409999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9378,10 +9378,10 @@
         <v>3.339</v>
       </c>
       <c r="I7">
-        <v>0.788</v>
+        <v>0.582</v>
       </c>
       <c r="J7">
-        <v>0.432</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9407,13 +9407,13 @@
         <v>0.029</v>
       </c>
       <c r="H8">
-        <v>0.144</v>
+        <v>0.14</v>
       </c>
       <c r="I8">
-        <v>0.073</v>
+        <v>0.066</v>
       </c>
       <c r="J8">
-        <v>0.9419999999999999</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9442,10 +9442,10 @@
         <v>-1.594</v>
       </c>
       <c r="I9">
-        <v>-0.824</v>
+        <v>-0.777</v>
       </c>
       <c r="J9">
-        <v>0.411</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9506,10 +9506,10 @@
         <v>-2.274</v>
       </c>
       <c r="I11">
-        <v>-1.103</v>
+        <v>-1.32</v>
       </c>
       <c r="J11">
-        <v>0.272</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9538,10 +9538,10 @@
         <v>0.462</v>
       </c>
       <c r="I12">
-        <v>0.226</v>
+        <v>0.218</v>
       </c>
       <c r="J12">
-        <v>0.822</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9570,10 +9570,10 @@
         <v>-1.486</v>
       </c>
       <c r="I13">
-        <v>-0.743</v>
+        <v>-0.582</v>
       </c>
       <c r="J13">
-        <v>0.459</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9602,10 +9602,10 @@
         <v>0.012</v>
       </c>
       <c r="I14">
-        <v>0.33</v>
+        <v>0.311</v>
       </c>
       <c r="J14">
-        <v>0.742</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9634,10 +9634,10 @@
         <v>0.052</v>
       </c>
       <c r="I15">
-        <v>1.411</v>
+        <v>1.254</v>
       </c>
       <c r="J15">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9666,10 +9666,10 @@
         <v>0.03</v>
       </c>
       <c r="I16">
-        <v>0.801</v>
+        <v>0.637</v>
       </c>
       <c r="J16">
-        <v>0.425</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9698,10 +9698,10 @@
         <v>-0.023</v>
       </c>
       <c r="I17">
-        <v>-0.634</v>
+        <v>-0.5659999999999999</v>
       </c>
       <c r="J17">
-        <v>0.527</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9730,10 +9730,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I18">
-        <v>0.247</v>
+        <v>0.173</v>
       </c>
       <c r="J18">
-        <v>0.805</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9762,10 +9762,10 @@
         <v>-0.001</v>
       </c>
       <c r="I19">
-        <v>-0.023</v>
+        <v>-0.022</v>
       </c>
       <c r="J19">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
     </row>
   </sheetData>
@@ -9851,10 +9851,10 @@
         <v>-4.289</v>
       </c>
       <c r="I2">
-        <v>-0.74</v>
+        <v>-0.598</v>
       </c>
       <c r="J2">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9883,7 +9883,7 @@
         <v>0.047</v>
       </c>
       <c r="I3">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J3">
         <v>0.993</v>
@@ -9915,10 +9915,10 @@
         <v>-0.351</v>
       </c>
       <c r="I4">
-        <v>-0.048</v>
+        <v>-0.052</v>
       </c>
       <c r="J4">
-        <v>0.961</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9947,10 +9947,10 @@
         <v>2.677</v>
       </c>
       <c r="I5">
-        <v>0.457</v>
+        <v>0.471</v>
       </c>
       <c r="J5">
-        <v>0.648</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9979,10 +9979,10 @@
         <v>-3.865</v>
       </c>
       <c r="I6">
-        <v>-0.72</v>
+        <v>-0.868</v>
       </c>
       <c r="J6">
-        <v>0.472</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10011,10 +10011,10 @@
         <v>1.273</v>
       </c>
       <c r="I7">
-        <v>0.248</v>
+        <v>0.183</v>
       </c>
       <c r="J7">
-        <v>0.804</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10040,13 +10040,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>-0.199</v>
+        <v>-0.189</v>
       </c>
       <c r="I8">
-        <v>-0.08400000000000001</v>
+        <v>-0.081</v>
       </c>
       <c r="J8">
-        <v>0.9330000000000001</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10075,10 +10075,10 @@
         <v>-0.134</v>
       </c>
       <c r="I9">
-        <v>-0.057</v>
+        <v>-0.066</v>
       </c>
       <c r="J9">
-        <v>0.955</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10107,10 +10107,10 @@
         <v>-0.202</v>
       </c>
       <c r="I10">
-        <v>-0.077</v>
+        <v>-0.082</v>
       </c>
       <c r="J10">
-        <v>0.9389999999999999</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10139,10 +10139,10 @@
         <v>-1.868</v>
       </c>
       <c r="I11">
-        <v>-0.748</v>
+        <v>-0.794</v>
       </c>
       <c r="J11">
-        <v>0.455</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10171,10 +10171,10 @@
         <v>2.815</v>
       </c>
       <c r="I12">
-        <v>1.142</v>
+        <v>1.164</v>
       </c>
       <c r="J12">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10203,10 +10203,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I13">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="J13">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10235,10 +10235,10 @@
         <v>0.011</v>
       </c>
       <c r="I14">
-        <v>0.269</v>
+        <v>0.266</v>
       </c>
       <c r="J14">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10267,10 +10267,10 @@
         <v>0.058</v>
       </c>
       <c r="I15">
-        <v>1.282</v>
+        <v>1.527</v>
       </c>
       <c r="J15">
-        <v>0.202</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10299,10 +10299,10 @@
         <v>0.043</v>
       </c>
       <c r="I16">
-        <v>0.9370000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J16">
-        <v>0.35</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10331,10 +10331,10 @@
         <v>-0.016</v>
       </c>
       <c r="I17">
-        <v>-0.357</v>
+        <v>-0.276</v>
       </c>
       <c r="J17">
-        <v>0.721</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10363,10 +10363,10 @@
         <v>0.029</v>
       </c>
       <c r="I18">
-        <v>0.669</v>
+        <v>0.478</v>
       </c>
       <c r="J18">
-        <v>0.505</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10395,10 +10395,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.33</v>
+        <v>0.319</v>
       </c>
       <c r="J19">
-        <v>0.742</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -10484,10 +10484,10 @@
         <v>-0.528</v>
       </c>
       <c r="I2">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="J2">
-        <v>0.9360000000000001</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10516,10 +10516,10 @@
         <v>5.311</v>
       </c>
       <c r="I3">
-        <v>0.8139999999999999</v>
+        <v>0.912</v>
       </c>
       <c r="J3">
-        <v>0.417</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10548,10 +10548,10 @@
         <v>3.583</v>
       </c>
       <c r="I4">
-        <v>0.435</v>
+        <v>0.444</v>
       </c>
       <c r="J4">
-        <v>0.664</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10580,10 +10580,10 @@
         <v>5.13</v>
       </c>
       <c r="I5">
-        <v>0.771</v>
+        <v>0.882</v>
       </c>
       <c r="J5">
-        <v>0.442</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10612,10 +10612,10 @@
         <v>-3.821</v>
       </c>
       <c r="I6">
-        <v>-0.626</v>
+        <v>-0.744</v>
       </c>
       <c r="J6">
-        <v>0.532</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10644,10 +10644,10 @@
         <v>-0.419</v>
       </c>
       <c r="I7">
-        <v>-0.07199999999999999</v>
+        <v>-0.051</v>
       </c>
       <c r="J7">
-        <v>0.9429999999999999</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10673,13 +10673,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-0.418</v>
+        <v>-0.428</v>
       </c>
       <c r="I8">
-        <v>-0.155</v>
+        <v>-0.158</v>
       </c>
       <c r="J8">
-        <v>0.877</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10708,10 +10708,10 @@
         <v>-0.893</v>
       </c>
       <c r="I9">
-        <v>-0.335</v>
+        <v>-0.427</v>
       </c>
       <c r="J9">
-        <v>0.738</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10740,10 +10740,10 @@
         <v>-1.679</v>
       </c>
       <c r="I10">
-        <v>-0.5629999999999999</v>
+        <v>-0.519</v>
       </c>
       <c r="J10">
-        <v>0.574</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10772,10 +10772,10 @@
         <v>-4.075</v>
       </c>
       <c r="I11">
-        <v>-1.442</v>
+        <v>-1.444</v>
       </c>
       <c r="J11">
-        <v>0.151</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10804,10 +10804,10 @@
         <v>3.114</v>
       </c>
       <c r="I12">
-        <v>1.11</v>
+        <v>1.102</v>
       </c>
       <c r="J12">
-        <v>0.269</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10836,10 +10836,10 @@
         <v>0.91</v>
       </c>
       <c r="I13">
-        <v>0.33</v>
+        <v>0.258</v>
       </c>
       <c r="J13">
-        <v>0.742</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10868,10 +10868,10 @@
         <v>0.046</v>
       </c>
       <c r="I14">
-        <v>0.961</v>
+        <v>1.105</v>
       </c>
       <c r="J14">
-        <v>0.338</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10900,10 +10900,10 @@
         <v>0.057</v>
       </c>
       <c r="I15">
-        <v>1.124</v>
+        <v>1.617</v>
       </c>
       <c r="J15">
-        <v>0.263</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10932,10 +10932,10 @@
         <v>0.023</v>
       </c>
       <c r="I16">
-        <v>0.442</v>
+        <v>0.366</v>
       </c>
       <c r="J16">
-        <v>0.659</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10964,10 +10964,10 @@
         <v>-0.027</v>
       </c>
       <c r="I17">
-        <v>-0.548</v>
+        <v>-0.5</v>
       </c>
       <c r="J17">
-        <v>0.584</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10996,10 +10996,10 @@
         <v>0.019</v>
       </c>
       <c r="I18">
-        <v>0.384</v>
+        <v>0.288</v>
       </c>
       <c r="J18">
-        <v>0.701</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11028,10 +11028,10 @@
         <v>0.022</v>
       </c>
       <c r="I19">
-        <v>0.47</v>
+        <v>0.504</v>
       </c>
       <c r="J19">
-        <v>0.639</v>
+        <v>0.614</v>
       </c>
     </row>
   </sheetData>
@@ -11110,10 +11110,10 @@
         <v>1.551</v>
       </c>
       <c r="H2">
-        <v>0.417</v>
+        <v>0.324</v>
       </c>
       <c r="I2">
-        <v>0.677</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11139,10 +11139,10 @@
         <v>3.396</v>
       </c>
       <c r="H3">
-        <v>0.924</v>
+        <v>0.786</v>
       </c>
       <c r="I3">
-        <v>0.357</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11168,10 +11168,10 @@
         <v>1.37</v>
       </c>
       <c r="H4">
-        <v>0.295</v>
+        <v>0.261</v>
       </c>
       <c r="I4">
-        <v>0.769</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11197,10 +11197,10 @@
         <v>1.37</v>
       </c>
       <c r="H5">
-        <v>0.365</v>
+        <v>0.475</v>
       </c>
       <c r="I5">
-        <v>0.716</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11226,10 +11226,10 @@
         <v>1.132</v>
       </c>
       <c r="H6">
-        <v>0.328</v>
+        <v>0.49</v>
       </c>
       <c r="I6">
-        <v>0.743</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11255,10 +11255,10 @@
         <v>0.836</v>
       </c>
       <c r="H7">
-        <v>0.254</v>
+        <v>0.259</v>
       </c>
       <c r="I7">
-        <v>0.8</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11281,13 +11281,13 @@
         <v>0.047</v>
       </c>
       <c r="G8">
-        <v>-1.508</v>
+        <v>-1.493</v>
       </c>
       <c r="H8">
-        <v>-0.993</v>
+        <v>-0.745</v>
       </c>
       <c r="I8">
-        <v>0.322</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11313,10 +11313,10 @@
         <v>-1.486</v>
       </c>
       <c r="H9">
-        <v>-0.992</v>
+        <v>-1.025</v>
       </c>
       <c r="I9">
-        <v>0.323</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11342,10 +11342,10 @@
         <v>-1.373</v>
       </c>
       <c r="H10">
-        <v>-0.8179999999999999</v>
+        <v>-0.672</v>
       </c>
       <c r="I10">
-        <v>0.414</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11371,10 +11371,10 @@
         <v>-1.046</v>
       </c>
       <c r="H11">
-        <v>-0.653</v>
+        <v>-0.764</v>
       </c>
       <c r="I11">
-        <v>0.515</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11400,10 +11400,10 @@
         <v>-0.007</v>
       </c>
       <c r="H12">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="I12">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11429,10 +11429,10 @@
         <v>0.128</v>
       </c>
       <c r="H13">
-        <v>0.082</v>
+        <v>0.08</v>
       </c>
       <c r="I13">
-        <v>0.9340000000000001</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11458,10 +11458,10 @@
         <v>0.06</v>
       </c>
       <c r="H14">
-        <v>2.248</v>
+        <v>1.934</v>
       </c>
       <c r="I14">
-        <v>0.026</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11487,10 +11487,10 @@
         <v>0.041</v>
       </c>
       <c r="H15">
-        <v>1.425</v>
+        <v>1.272</v>
       </c>
       <c r="I15">
-        <v>0.156</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11516,10 +11516,10 @@
         <v>-0.008</v>
       </c>
       <c r="H16">
-        <v>-0.283</v>
+        <v>-0.294</v>
       </c>
       <c r="I16">
-        <v>0.778</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11545,10 +11545,10 @@
         <v>-0.03</v>
       </c>
       <c r="H17">
-        <v>-1.081</v>
+        <v>-0.946</v>
       </c>
       <c r="I17">
-        <v>0.282</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11574,10 +11574,10 @@
         <v>0.031</v>
       </c>
       <c r="H18">
-        <v>1.117</v>
+        <v>0.638</v>
       </c>
       <c r="I18">
-        <v>0.266</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11603,10 +11603,10 @@
         <v>0.019</v>
       </c>
       <c r="H19">
-        <v>0.718</v>
+        <v>0.549</v>
       </c>
       <c r="I19">
-        <v>0.474</v>
+        <v>0.583</v>
       </c>
     </row>
   </sheetData>
@@ -11692,10 +11692,10 @@
         <v>-0.323</v>
       </c>
       <c r="I2">
-        <v>-0.07000000000000001</v>
+        <v>-0.057</v>
       </c>
       <c r="J2">
-        <v>0.944</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11724,10 +11724,10 @@
         <v>1.567</v>
       </c>
       <c r="I3">
-        <v>0.344</v>
+        <v>0.332</v>
       </c>
       <c r="J3">
-        <v>0.731</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11756,10 +11756,10 @@
         <v>-0.834</v>
       </c>
       <c r="I4">
-        <v>-0.145</v>
+        <v>-0.121</v>
       </c>
       <c r="J4">
-        <v>0.885</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11788,10 +11788,10 @@
         <v>0.212</v>
       </c>
       <c r="I5">
-        <v>0.046</v>
+        <v>0.065</v>
       </c>
       <c r="J5">
-        <v>0.964</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11820,10 +11820,10 @@
         <v>-1.88</v>
       </c>
       <c r="I6">
-        <v>-0.442</v>
+        <v>-0.588</v>
       </c>
       <c r="J6">
-        <v>0.659</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11852,10 +11852,10 @@
         <v>1.738</v>
       </c>
       <c r="I7">
-        <v>0.428</v>
+        <v>0.367</v>
       </c>
       <c r="J7">
-        <v>0.669</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11881,13 +11881,13 @@
         <v>0.031</v>
       </c>
       <c r="H8">
-        <v>-1.286</v>
+        <v>-1.278</v>
       </c>
       <c r="I8">
-        <v>-0.6850000000000001</v>
+        <v>-0.571</v>
       </c>
       <c r="J8">
-        <v>0.494</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11916,10 +11916,10 @@
         <v>-1.177</v>
       </c>
       <c r="I9">
-        <v>-0.636</v>
+        <v>-0.757</v>
       </c>
       <c r="J9">
-        <v>0.526</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11948,10 +11948,10 @@
         <v>-0.403</v>
       </c>
       <c r="I10">
-        <v>-0.194</v>
+        <v>-0.149</v>
       </c>
       <c r="J10">
-        <v>0.846</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11980,10 +11980,10 @@
         <v>-1.35</v>
       </c>
       <c r="I11">
-        <v>-0.6830000000000001</v>
+        <v>-0.883</v>
       </c>
       <c r="J11">
-        <v>0.496</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12012,10 +12012,10 @@
         <v>1.294</v>
       </c>
       <c r="I12">
-        <v>0.661</v>
+        <v>0.876</v>
       </c>
       <c r="J12">
-        <v>0.509</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12044,10 +12044,10 @@
         <v>-0.384</v>
       </c>
       <c r="I13">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="J13">
-        <v>0.841</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12076,10 +12076,10 @@
         <v>0.055</v>
       </c>
       <c r="I14">
-        <v>1.664</v>
+        <v>1.886</v>
       </c>
       <c r="J14">
-        <v>0.098</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12108,10 +12108,10 @@
         <v>0.046</v>
       </c>
       <c r="I15">
-        <v>1.29</v>
+        <v>1.222</v>
       </c>
       <c r="J15">
-        <v>0.199</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12140,10 +12140,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.175</v>
+        <v>0.168</v>
       </c>
       <c r="J16">
-        <v>0.861</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12172,10 +12172,10 @@
         <v>-0.029</v>
       </c>
       <c r="I17">
-        <v>-0.825</v>
+        <v>-0.605</v>
       </c>
       <c r="J17">
-        <v>0.41</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12204,10 +12204,10 @@
         <v>0.042</v>
       </c>
       <c r="I18">
-        <v>1.23</v>
+        <v>0.785</v>
       </c>
       <c r="J18">
-        <v>0.221</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12236,10 +12236,10 @@
         <v>0.029</v>
       </c>
       <c r="I19">
-        <v>0.887</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="J19">
-        <v>0.376</v>
+        <v>0.488</v>
       </c>
     </row>
   </sheetData>
@@ -12325,10 +12325,10 @@
         <v>-1.079</v>
       </c>
       <c r="I2">
-        <v>-0.197</v>
+        <v>-0.155</v>
       </c>
       <c r="J2">
-        <v>0.844</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12357,10 +12357,10 @@
         <v>-0.981</v>
       </c>
       <c r="I3">
-        <v>-0.181</v>
+        <v>-0.226</v>
       </c>
       <c r="J3">
-        <v>0.857</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12389,10 +12389,10 @@
         <v>0.492</v>
       </c>
       <c r="I4">
-        <v>0.07199999999999999</v>
+        <v>0.059</v>
       </c>
       <c r="J4">
-        <v>0.9429999999999999</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12421,10 +12421,10 @@
         <v>-2.762</v>
       </c>
       <c r="I5">
-        <v>-0.499</v>
+        <v>-0.506</v>
       </c>
       <c r="J5">
-        <v>0.618</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12453,10 +12453,10 @@
         <v>-6.232</v>
       </c>
       <c r="I6">
-        <v>-1.234</v>
+        <v>-1.284</v>
       </c>
       <c r="J6">
-        <v>0.219</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12485,10 +12485,10 @@
         <v>-2.424</v>
       </c>
       <c r="I7">
-        <v>-0.5</v>
+        <v>-0.383</v>
       </c>
       <c r="J7">
-        <v>0.618</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12514,13 +12514,13 @@
         <v>0.022</v>
       </c>
       <c r="H8">
-        <v>-1.482</v>
+        <v>-1.51</v>
       </c>
       <c r="I8">
-        <v>-0.662</v>
+        <v>-0.595</v>
       </c>
       <c r="J8">
-        <v>0.509</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12549,10 +12549,10 @@
         <v>-0.254</v>
       </c>
       <c r="I9">
-        <v>-0.115</v>
+        <v>-0.162</v>
       </c>
       <c r="J9">
-        <v>0.909</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12581,10 +12581,10 @@
         <v>-1.231</v>
       </c>
       <c r="I10">
-        <v>-0.498</v>
+        <v>-0.414</v>
       </c>
       <c r="J10">
-        <v>0.619</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12613,10 +12613,10 @@
         <v>-0.372</v>
       </c>
       <c r="I11">
-        <v>-0.157</v>
+        <v>-0.159</v>
       </c>
       <c r="J11">
-        <v>0.875</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12645,10 +12645,10 @@
         <v>3.324</v>
       </c>
       <c r="I12">
-        <v>1.431</v>
+        <v>1.403</v>
       </c>
       <c r="J12">
-        <v>0.154</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12677,10 +12677,10 @@
         <v>2.237</v>
       </c>
       <c r="I13">
-        <v>0.981</v>
+        <v>0.927</v>
       </c>
       <c r="J13">
-        <v>0.328</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12709,10 +12709,10 @@
         <v>0.074</v>
       </c>
       <c r="I14">
-        <v>1.867</v>
+        <v>1.776</v>
       </c>
       <c r="J14">
-        <v>0.064</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12741,10 +12741,10 @@
         <v>0.033</v>
       </c>
       <c r="I15">
-        <v>0.774</v>
+        <v>0.969</v>
       </c>
       <c r="J15">
-        <v>0.44</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12773,10 +12773,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="J16">
-        <v>0.887</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12805,10 +12805,10 @@
         <v>-0.031</v>
       </c>
       <c r="I17">
-        <v>-0.758</v>
+        <v>-0.465</v>
       </c>
       <c r="J17">
-        <v>0.45</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12837,10 +12837,10 @@
         <v>0.06</v>
       </c>
       <c r="I18">
-        <v>1.495</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J18">
-        <v>0.137</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12869,10 +12869,10 @@
         <v>0.04</v>
       </c>
       <c r="I19">
-        <v>1.036</v>
+        <v>0.912</v>
       </c>
       <c r="J19">
-        <v>0.302</v>
+        <v>0.362</v>
       </c>
     </row>
   </sheetData>
@@ -12958,10 +12958,10 @@
         <v>3.451</v>
       </c>
       <c r="I2">
-        <v>0.571</v>
+        <v>0.427</v>
       </c>
       <c r="J2">
-        <v>0.569</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12990,10 +12990,10 @@
         <v>6.027</v>
       </c>
       <c r="I3">
-        <v>1.01</v>
+        <v>0.987</v>
       </c>
       <c r="J3">
-        <v>0.314</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13022,10 +13022,10 @@
         <v>3.607</v>
       </c>
       <c r="I4">
-        <v>0.478</v>
+        <v>0.458</v>
       </c>
       <c r="J4">
-        <v>0.633</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13054,10 +13054,10 @@
         <v>-1.517</v>
       </c>
       <c r="I5">
-        <v>-0.248</v>
+        <v>-0.297</v>
       </c>
       <c r="J5">
-        <v>0.804</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13086,10 +13086,10 @@
         <v>-4.259</v>
       </c>
       <c r="I6">
-        <v>-0.762</v>
+        <v>-1.042</v>
       </c>
       <c r="J6">
-        <v>0.447</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13118,10 +13118,10 @@
         <v>-4.095</v>
       </c>
       <c r="I7">
-        <v>-0.767</v>
+        <v>-0.577</v>
       </c>
       <c r="J7">
-        <v>0.444</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13147,13 +13147,13 @@
         <v>0.017</v>
       </c>
       <c r="H8">
-        <v>-2.143</v>
+        <v>-2.137</v>
       </c>
       <c r="I8">
-        <v>-0.868</v>
+        <v>-0.763</v>
       </c>
       <c r="J8">
-        <v>0.387</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13182,10 +13182,10 @@
         <v>-1.773</v>
       </c>
       <c r="I9">
-        <v>-0.728</v>
+        <v>-0.761</v>
       </c>
       <c r="J9">
-        <v>0.468</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13214,10 +13214,10 @@
         <v>-2.546</v>
       </c>
       <c r="I10">
-        <v>-0.9350000000000001</v>
+        <v>-0.823</v>
       </c>
       <c r="J10">
-        <v>0.351</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13246,10 +13246,10 @@
         <v>-1.773</v>
       </c>
       <c r="I11">
-        <v>-0.681</v>
+        <v>-0.718</v>
       </c>
       <c r="J11">
-        <v>0.497</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13278,10 +13278,10 @@
         <v>3.168</v>
       </c>
       <c r="I12">
-        <v>1.235</v>
+        <v>1.372</v>
       </c>
       <c r="J12">
-        <v>0.219</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13310,10 +13310,10 @@
         <v>2.935</v>
       </c>
       <c r="I13">
-        <v>1.168</v>
+        <v>1.052</v>
       </c>
       <c r="J13">
-        <v>0.245</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13342,10 +13342,10 @@
         <v>0.11</v>
       </c>
       <c r="I14">
-        <v>2.534</v>
+        <v>2.417</v>
       </c>
       <c r="J14">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13374,10 +13374,10 @@
         <v>0.021</v>
       </c>
       <c r="I15">
-        <v>0.452</v>
+        <v>0.759</v>
       </c>
       <c r="J15">
-        <v>0.652</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13406,10 +13406,10 @@
         <v>-0.007</v>
       </c>
       <c r="I16">
-        <v>-0.153</v>
+        <v>-0.189</v>
       </c>
       <c r="J16">
-        <v>0.879</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13438,10 +13438,10 @@
         <v>-0.018</v>
       </c>
       <c r="I17">
-        <v>-0.403</v>
+        <v>-0.29</v>
       </c>
       <c r="J17">
-        <v>0.6870000000000001</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13470,10 +13470,10 @@
         <v>0.042</v>
       </c>
       <c r="I18">
-        <v>0.944</v>
+        <v>0.704</v>
       </c>
       <c r="J18">
-        <v>0.346</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13502,10 +13502,10 @@
         <v>0.037</v>
       </c>
       <c r="I19">
-        <v>0.856</v>
+        <v>0.907</v>
       </c>
       <c r="J19">
-        <v>0.393</v>
+        <v>0.364</v>
       </c>
     </row>
   </sheetData>
@@ -13591,10 +13591,10 @@
         <v>1.541</v>
       </c>
       <c r="I2">
-        <v>0.449</v>
+        <v>0.368</v>
       </c>
       <c r="J2">
-        <v>0.654</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13623,10 +13623,10 @@
         <v>4.762</v>
       </c>
       <c r="I3">
-        <v>1.41</v>
+        <v>1.387</v>
       </c>
       <c r="J3">
-        <v>0.161</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13655,10 +13655,10 @@
         <v>2.103</v>
       </c>
       <c r="I4">
-        <v>0.491</v>
+        <v>0.417</v>
       </c>
       <c r="J4">
-        <v>0.624</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13687,10 +13687,10 @@
         <v>2.113</v>
       </c>
       <c r="I5">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="J5">
-        <v>0.543</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13719,10 +13719,10 @@
         <v>1.251</v>
       </c>
       <c r="I6">
-        <v>0.394</v>
+        <v>0.526</v>
       </c>
       <c r="J6">
-        <v>0.694</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13751,10 +13751,10 @@
         <v>-2.004</v>
       </c>
       <c r="I7">
-        <v>-0.661</v>
+        <v>-0.629</v>
       </c>
       <c r="J7">
-        <v>0.51</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13780,13 +13780,13 @@
         <v>0.056</v>
       </c>
       <c r="H8">
-        <v>-1.987</v>
+        <v>-1.992</v>
       </c>
       <c r="I8">
-        <v>-1.424</v>
+        <v>-1.063</v>
       </c>
       <c r="J8">
-        <v>0.157</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13815,10 +13815,10 @@
         <v>-1.781</v>
       </c>
       <c r="I9">
-        <v>-1.292</v>
+        <v>-1.386</v>
       </c>
       <c r="J9">
-        <v>0.198</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13847,10 +13847,10 @@
         <v>-1.529</v>
       </c>
       <c r="I10">
-        <v>-0.989</v>
+        <v>-0.788</v>
       </c>
       <c r="J10">
-        <v>0.324</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13879,10 +13879,10 @@
         <v>-1.021</v>
       </c>
       <c r="I11">
-        <v>-0.6909999999999999</v>
+        <v>-0.63</v>
       </c>
       <c r="J11">
-        <v>0.49</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13911,10 +13911,10 @@
         <v>-0.104</v>
       </c>
       <c r="I12">
-        <v>-0.07099999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="J12">
-        <v>0.9429999999999999</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13943,10 +13943,10 @@
         <v>1.583</v>
       </c>
       <c r="I13">
-        <v>1.109</v>
+        <v>0.945</v>
       </c>
       <c r="J13">
-        <v>0.269</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13975,10 +13975,10 @@
         <v>0.051</v>
       </c>
       <c r="I14">
-        <v>2.057</v>
+        <v>1.801</v>
       </c>
       <c r="J14">
-        <v>0.041</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14007,10 +14007,10 @@
         <v>0.047</v>
       </c>
       <c r="I15">
-        <v>1.773</v>
+        <v>1.885</v>
       </c>
       <c r="J15">
-        <v>0.078</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14039,10 +14039,10 @@
         <v>-0.022</v>
       </c>
       <c r="I16">
-        <v>-0.822</v>
+        <v>-0.755</v>
       </c>
       <c r="J16">
-        <v>0.412</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14071,10 +14071,10 @@
         <v>-0.036</v>
       </c>
       <c r="I17">
-        <v>-1.388</v>
+        <v>-1.127</v>
       </c>
       <c r="J17">
-        <v>0.167</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14103,10 +14103,10 @@
         <v>0.01</v>
       </c>
       <c r="I18">
-        <v>0.38</v>
+        <v>0.255</v>
       </c>
       <c r="J18">
-        <v>0.704</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14135,10 +14135,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>0.382</v>
+        <v>0.306</v>
       </c>
       <c r="J19">
-        <v>0.703</v>
+        <v>0.759</v>
       </c>
     </row>
   </sheetData>
